--- a/output.xlsx
+++ b/output.xlsx
@@ -1,116 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="7875"/>
-  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Book_Title</t>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Found</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>In_Stock</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>The Subtle Art of Not Giving a F</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Mark Manson</t>
-  </si>
-  <si>
-    <t>Harper Collins</t>
-  </si>
-  <si>
-    <t>https://www.snapdeal.com/product/the-subtle-art-of-not/673256894166#bcrumbSearch:9780062641540</t>
-  </si>
-  <si>
-    <t>IKIGAI</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>Hector Garcia and Francesc Miralles</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>https://www.snapdeal.com/product/ikigai-the-japanese-secret-to/619234403588#bcrumbSearch:9781786330895</t>
-  </si>
-  <si>
-    <t>Atomic Habits</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Cornerstone</t>
-  </si>
-  <si>
-    <t>https://www.snapdeal.com/product/atomic-habits-english-paperback-by/674628090346#bcrumbSearch:9781847941831</t>
-  </si>
-  <si>
-    <t>Zero to One</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>Peter Thiel with Blake Masters</t>
-  </si>
-  <si>
-    <t>Virgin Book</t>
-  </si>
-  <si>
-    <t>https://www.snapdeal.com/product/zero-to-one/664409285227#bcrumbSearch:9780753555194</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,22 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -479,172 +396,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
-    <col min="6" max="6" width="31.25" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="52.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>No</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Book_Title</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ISBN</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Price</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Found</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Author</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Publisher</v>
+      </c>
+      <c r="H1" t="str">
+        <v>In_Stock</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Site</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" t="str">
+        <v>The Subtle Art of Not Giving a F</v>
       </c>
       <c r="C2">
         <v>9780062641540</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+      <c r="D2" t="str">
+        <v>184</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Mark Manson</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Harper Collins</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://www.snapdeal.com/product/the-subtle-art-of-not/673256894166#bcrumbSearch:9780062641540</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
+      <c r="B3" t="str">
+        <v>IKIGAI</v>
       </c>
       <c r="C3">
         <v>9781786330895</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
+      <c r="D3" t="str">
+        <v>175</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Hector Garcia and Francesc Miralles</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Penguin</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I3" t="str">
+        <v>https://www.snapdeal.com/product/ikigai-the-japanese-secret-to/619234403588#bcrumbSearch:9781786330895</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="B4" t="str">
+        <v>Atomic Habits</v>
       </c>
       <c r="C4">
         <v>9781847941831</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
+      <c r="D4" t="str">
+        <v>185</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F4" t="str">
+        <v>James</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Cornerstone</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I4" t="str">
+        <v>https://www.snapdeal.com/product/atomic-habits-english-paperback-by/674628090346#bcrumbSearch:9781847941831</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
+      <c r="B5" t="str">
+        <v>Zero to One</v>
       </c>
       <c r="C5">
         <v>9780753555194</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
+      <c r="D5" t="str">
+        <v>188</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Peter Thiel with Blake Masters</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Virgin Book</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="I5" t="str">
+        <v>https://www.snapdeal.com/product/zero-to-one/664409285227#bcrumbSearch:9780753555194</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I5" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -515,7 +515,7 @@
         <v>Yes</v>
       </c>
       <c r="I4" t="str">
-        <v>https://www.snapdeal.com/product/atomic-habits-english-paperback-by/674628090346#bcrumbSearch:9781847941831</v>
+        <v>https://www.snapdeal.com/product/atomic-habits-english-paperback-by/642322371652#bcrumbSearch:9781847941831</v>
       </c>
     </row>
     <row r="5">
